--- a/240916 before experiment testing.xlsx
+++ b/240916 before experiment testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C241B54-DDA7-46E7-B41B-F67F92DF9ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E27DC7E-ADBA-473E-B658-3D15DD4B4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
   <si>
     <t>Time point (min)</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>this is to test non-existing slot</t>
+  </si>
+  <si>
+    <t>Pump 4</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -463,7 +466,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
